--- a/ALMS/文件/database.xlsx
+++ b/ALMS/文件/database.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ALMS\ALMS\SQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ALMS\ALMS\文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16785" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16785" windowHeight="7680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基本資料" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="211">
   <si>
     <t>會計科目</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -801,6 +801,65 @@
   <si>
     <t>[ACC_NO]</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>月結紀錄</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndOfMonth</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TR01X</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[TR01X_ID]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC_NO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEB_MY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRN_DT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRE_MY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>會計科目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>月結金額借方</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>月結金額貸方</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>稅帳/財稅帳/財帳</t>
   </si>
 </sst>
 </file>
@@ -1253,7 +1312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2121,10 +2180,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2202,6 +2261,9 @@
       <c r="D4" t="s">
         <v>180</v>
       </c>
+      <c r="G4" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="5" t="s">
@@ -2411,6 +2473,157 @@
     </row>
     <row r="20" spans="1:6">
       <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" t="s">
+        <v>208</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/ALMS/文件/database.xlsx
+++ b/ALMS/文件/database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16785" windowHeight="7680" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16785" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="基本資料" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="212">
   <si>
     <t>會計科目</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -235,10 +235,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[DA01A_ID]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">[ACT_YN] </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -860,14 +856,23 @@
   </si>
   <si>
     <t>稅帳/財稅帳/財帳</t>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[DA01A_ID]/BAL_TP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -987,7 +992,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1028,6 +1033,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1312,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1323,7 +1331,7 @@
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1334,7 +1342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1348,10 +1356,10 @@
         <v>45</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1359,7 +1367,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>44</v>
@@ -1368,10 +1376,10 @@
         <v>30</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1379,7 +1387,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>46</v>
@@ -1388,10 +1396,10 @@
         <v>50</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1408,7 +1416,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1416,16 +1424,19 @@
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>211</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>50</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>150</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1433,7 +1444,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
         <v>48</v>
@@ -1442,10 +1453,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1453,16 +1464,16 @@
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>51</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1479,7 +1490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1496,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1513,7 +1524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1530,7 +1541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -1541,7 +1552,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -1552,7 +1563,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -1563,7 +1574,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -1580,7 +1591,7 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
         <v>48</v>
@@ -1591,22 +1602,22 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>56</v>
-      </c>
       <c r="C22" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J22" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1614,42 +1625,42 @@
         <v>3</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
         <v>44</v>
@@ -1658,48 +1669,48 @@
         <v>30</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H24" t="s">
+        <v>115</v>
+      </c>
+      <c r="J24" t="s">
         <v>116</v>
       </c>
-      <c r="J24" t="s">
-        <v>117</v>
-      </c>
       <c r="K24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="C25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" t="s">
         <v>87</v>
-      </c>
-      <c r="D25" t="s">
-        <v>88</v>
       </c>
       <c r="E25">
         <v>50</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I25" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="K25" t="s">
         <v>44</v>
@@ -1708,50 +1719,50 @@
         <v>30</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E26">
         <v>50</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="K26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L26">
         <v>50</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D27" t="s">
         <v>44</v>
@@ -1760,13 +1771,13 @@
         <v>20</v>
       </c>
       <c r="H27" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I27" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="J27" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="K27" t="s">
         <v>44</v>
@@ -1777,28 +1788,28 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E28">
         <v>70</v>
       </c>
       <c r="H28" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="J28" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="K28" t="s">
         <v>44</v>
@@ -1809,25 +1820,25 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29">
         <v>70</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>33</v>
@@ -1835,17 +1846,17 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F30" s="10"/>
       <c r="H30" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>35</v>
@@ -1856,7 +1867,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>35</v>
@@ -1866,54 +1877,54 @@
       </c>
       <c r="F31" s="10"/>
       <c r="H31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="J31" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F32" s="10"/>
       <c r="H32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="J32" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H33" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="J33" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1922,7 +1933,7 @@
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D34" t="s">
         <v>48</v>
@@ -1936,35 +1947,35 @@
         <v>19</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>123</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s">
         <v>44</v>
@@ -1973,35 +1984,35 @@
         <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E42">
         <v>50</v>
       </c>
       <c r="F42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>33</v>
@@ -2009,35 +2020,35 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2045,46 +2056,46 @@
         <v>43</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B51" s="12" t="s">
-        <v>140</v>
-      </c>
       <c r="C51" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>142</v>
-      </c>
       <c r="C52" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D53" t="s">
         <v>44</v>
@@ -2093,35 +2104,35 @@
         <v>30</v>
       </c>
       <c r="F53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E54">
         <v>50</v>
       </c>
       <c r="F54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>33</v>
@@ -2140,24 +2151,24 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2165,10 +2176,10 @@
         <v>43</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2182,8 +2193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2196,13 +2207,13 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>154</v>
-      </c>
       <c r="C1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2210,16 +2221,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2230,7 +2241,7 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D3" t="s">
         <v>44</v>
@@ -2239,10 +2250,10 @@
         <v>8</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H3">
         <v>20180630</v>
@@ -2250,30 +2261,30 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
@@ -2282,41 +2293,41 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H5">
         <v>10701001</v>
       </c>
       <c r="I5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K7" s="1"/>
       <c r="N7" s="4"/>
@@ -2329,10 +2340,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K8" s="1"/>
       <c r="N8" s="4"/>
@@ -2342,25 +2353,25 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="C10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D10" t="s">
         <v>46</v>
@@ -2372,37 +2383,37 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="C11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" t="s">
         <v>187</v>
-      </c>
-      <c r="E11" t="s">
-        <v>188</v>
       </c>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="C12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K12" s="1"/>
     </row>
@@ -2411,7 +2422,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>33</v>
@@ -2419,7 +2430,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>35</v>
@@ -2430,10 +2441,10 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>39</v>
@@ -2441,10 +2452,10 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>42</v>
@@ -2452,13 +2463,13 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="C17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
         <v>48</v>
@@ -2476,13 +2487,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B21" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="C21" t="s">
         <v>197</v>
-      </c>
-      <c r="C21" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2490,78 +2501,78 @@
         <v>3</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E23">
         <v>8</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E24">
         <v>8</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D25" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" t="s">
         <v>187</v>
-      </c>
-      <c r="E25" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E26" t="s">
         <v>187</v>
-      </c>
-      <c r="E26" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2569,7 +2580,7 @@
         <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>33</v>
@@ -2577,7 +2588,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>35</v>
@@ -2591,7 +2602,7 @@
         <v>37</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>39</v>
@@ -2599,7 +2610,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>41</v>
@@ -2610,13 +2621,13 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
         <v>48</v>
@@ -2628,5 +2639,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>